--- a/src/test/resources/test_data.xlsx
+++ b/src/test/resources/test_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="193">
   <si>
     <t>AssayPlate</t>
   </si>
@@ -26,7 +26,10 @@
     <t>TimeMarker</t>
   </si>
   <si>
-    <t>Identifier</t>
+    <t>EntrezGeneID</t>
+  </si>
+  <si>
+    <t>GeneSymbol</t>
   </si>
   <si>
     <t>HTB1562</t>
@@ -35,292 +38,559 @@
     <t>18</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>negativecontrol</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>71099</t>
+  </si>
+  <si>
     <t>4933424F08Rik</t>
   </si>
   <si>
+    <t>235582</t>
+  </si>
+  <si>
     <t>6230410P16Rik</t>
   </si>
   <si>
+    <t>66588</t>
+  </si>
+  <si>
     <t>0610011D08Rik</t>
   </si>
   <si>
+    <t>74137</t>
+  </si>
+  <si>
     <t>1200013B22Rik</t>
   </si>
   <si>
+    <t>75456</t>
+  </si>
+  <si>
     <t>1700011K15Rik</t>
   </si>
   <si>
+    <t>74178</t>
+  </si>
+  <si>
     <t>Stk40</t>
   </si>
   <si>
+    <t>70415</t>
+  </si>
+  <si>
     <t>2610018G03Rik</t>
   </si>
   <si>
+    <t>69923</t>
+  </si>
+  <si>
     <t>Agk</t>
   </si>
   <si>
+    <t>233789</t>
+  </si>
+  <si>
     <t>Smg1</t>
   </si>
   <si>
+    <t>78334</t>
+  </si>
+  <si>
     <t>2700084L06Rik</t>
   </si>
   <si>
+    <t>216965</t>
+  </si>
+  <si>
     <t>2810468K05Rik</t>
   </si>
   <si>
+    <t>68087</t>
+  </si>
+  <si>
     <t>6720485C15Rik</t>
   </si>
   <si>
+    <t>320129</t>
+  </si>
+  <si>
     <t>Adrbk2</t>
   </si>
   <si>
+    <t>101540</t>
+  </si>
+  <si>
     <t>Prkd2</t>
   </si>
   <si>
     <t>AI325941</t>
   </si>
   <si>
+    <t>244859</t>
+  </si>
+  <si>
     <t>9930020N01Rik</t>
   </si>
   <si>
+    <t>70349</t>
+  </si>
+  <si>
     <t>Copb1_indi</t>
   </si>
   <si>
+    <t>330177</t>
+  </si>
+  <si>
     <t>A130052D22</t>
   </si>
   <si>
+    <t>11477</t>
+  </si>
+  <si>
     <t>Acvr1</t>
   </si>
   <si>
+    <t>11479</t>
+  </si>
+  <si>
     <t>Acvr1b</t>
   </si>
   <si>
+    <t>11480</t>
+  </si>
+  <si>
     <t>Acvr2</t>
   </si>
   <si>
+    <t>11481</t>
+  </si>
+  <si>
     <t>Acvr2b</t>
   </si>
   <si>
+    <t>11482</t>
+  </si>
+  <si>
     <t>Acvrl1</t>
   </si>
   <si>
+    <t>110355</t>
+  </si>
+  <si>
     <t>Adrbk1</t>
   </si>
   <si>
+    <t>243659</t>
+  </si>
+  <si>
     <t>AI326477</t>
   </si>
   <si>
     <t>Styk1</t>
   </si>
   <si>
+    <t>227154</t>
+  </si>
+  <si>
     <t>Als2cr2</t>
   </si>
   <si>
+    <t>110542</t>
+  </si>
+  <si>
     <t>Amhr2</t>
   </si>
   <si>
+    <t>227333</t>
+  </si>
+  <si>
     <t>AI841987</t>
   </si>
   <si>
+    <t>100683</t>
+  </si>
+  <si>
     <t>AI481500</t>
   </si>
   <si>
+    <t>11636</t>
+  </si>
+  <si>
     <t>Ak1</t>
   </si>
   <si>
+    <t>11637</t>
+  </si>
+  <si>
     <t>Ak2</t>
   </si>
   <si>
+    <t>56248</t>
+  </si>
+  <si>
     <t>Ak3</t>
   </si>
   <si>
+    <t>11652</t>
+  </si>
+  <si>
     <t>Akt2</t>
   </si>
   <si>
+    <t>23797</t>
+  </si>
+  <si>
     <t>Akt3</t>
   </si>
   <si>
+    <t>11682</t>
+  </si>
+  <si>
     <t>Alk</t>
   </si>
   <si>
+    <t>11836</t>
+  </si>
+  <si>
     <t>Araf</t>
   </si>
   <si>
+    <t>235604</t>
+  </si>
+  <si>
     <t>BC017634</t>
   </si>
   <si>
     <t>Camkv</t>
   </si>
   <si>
+    <t>230809</t>
+  </si>
+  <si>
     <t>Pdik1l</t>
   </si>
   <si>
+    <t>268930</t>
+  </si>
+  <si>
     <t>AW209059</t>
   </si>
   <si>
     <t>Pkmyt1</t>
   </si>
   <si>
+    <t>11920</t>
+  </si>
+  <si>
     <t>Atm</t>
   </si>
   <si>
+    <t>20877</t>
+  </si>
+  <si>
     <t>Aurkb</t>
   </si>
   <si>
+    <t>244631</t>
+  </si>
+  <si>
     <t>Pskh1</t>
   </si>
   <si>
+    <t>65964</t>
+  </si>
+  <si>
     <t>B230120H23Rik</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>192185</t>
+  </si>
+  <si>
     <t>Nadk</t>
   </si>
   <si>
+    <t>223649</t>
+  </si>
+  <si>
     <t>Nrbp2</t>
   </si>
   <si>
+    <t>216019</t>
+  </si>
+  <si>
     <t>Hkdc1</t>
   </si>
   <si>
+    <t>332110</t>
+  </si>
+  <si>
     <t>Mapk15</t>
   </si>
   <si>
+    <t>12229</t>
+  </si>
+  <si>
     <t>Btk</t>
   </si>
   <si>
+    <t>12235</t>
+  </si>
+  <si>
     <t>Bub1</t>
   </si>
   <si>
+    <t>12143</t>
+  </si>
+  <si>
     <t>Blk</t>
   </si>
   <si>
+    <t>381983</t>
+  </si>
+  <si>
     <t>BC059845</t>
   </si>
   <si>
+    <t>12041</t>
+  </si>
+  <si>
     <t>Bckdk</t>
   </si>
   <si>
+    <t>11797</t>
+  </si>
+  <si>
     <t>Birc2</t>
   </si>
   <si>
+    <t>12166</t>
+  </si>
+  <si>
     <t>Bmpr1a</t>
   </si>
   <si>
+    <t>12167</t>
+  </si>
+  <si>
     <t>Bmpr1b</t>
   </si>
   <si>
+    <t>12168</t>
+  </si>
+  <si>
     <t>Bmpr2</t>
   </si>
   <si>
+    <t>75770</t>
+  </si>
+  <si>
     <t>Brsk2</t>
   </si>
   <si>
+    <t>12236</t>
+  </si>
+  <si>
     <t>Bub1b</t>
   </si>
   <si>
+    <t>217866</t>
+  </si>
+  <si>
     <t>Cdc42bpb</t>
   </si>
   <si>
+    <t>12545</t>
+  </si>
+  <si>
     <t>Cdc7</t>
   </si>
   <si>
+    <t>74637</t>
+  </si>
+  <si>
     <t>Carkl</t>
   </si>
   <si>
+    <t>52163</t>
+  </si>
+  <si>
     <t>Camk1</t>
   </si>
   <si>
+    <t>215303</t>
+  </si>
+  <si>
     <t>Camk1g</t>
   </si>
   <si>
+    <t>108058</t>
+  </si>
+  <si>
     <t>Camk2d</t>
   </si>
   <si>
+    <t>12326</t>
+  </si>
+  <si>
     <t>Camk4</t>
   </si>
   <si>
+    <t>12361</t>
+  </si>
+  <si>
     <t>Cask</t>
   </si>
   <si>
+    <t>12481</t>
+  </si>
+  <si>
     <t>Cd2</t>
   </si>
   <si>
+    <t>12534</t>
+  </si>
+  <si>
     <t>Cdc2a</t>
   </si>
   <si>
+    <t>234854</t>
+  </si>
+  <si>
     <t>Cdk10</t>
   </si>
   <si>
+    <t>223753</t>
+  </si>
+  <si>
     <t>Cerk</t>
   </si>
   <si>
+    <t>12649</t>
+  </si>
+  <si>
     <t>Chek1</t>
   </si>
   <si>
+    <t>107951</t>
+  </si>
+  <si>
     <t>Cdk9</t>
   </si>
   <si>
+    <t>12567</t>
+  </si>
+  <si>
     <t>Cdk4</t>
   </si>
   <si>
+    <t>12568</t>
+  </si>
+  <si>
     <t>Cdk5</t>
   </si>
   <si>
+    <t>12571</t>
+  </si>
+  <si>
     <t>Cdk6</t>
   </si>
   <si>
+    <t>12572</t>
+  </si>
+  <si>
     <t>Cdk7</t>
   </si>
   <si>
+    <t>264064</t>
+  </si>
+  <si>
     <t>Cdk8</t>
   </si>
   <si>
+    <t>71091</t>
+  </si>
+  <si>
     <t>Cdkl1</t>
   </si>
   <si>
+    <t>53886</t>
+  </si>
+  <si>
     <t>Cdkl2</t>
   </si>
   <si>
+    <t>12651</t>
+  </si>
+  <si>
     <t>Chkb</t>
   </si>
   <si>
+    <t>71743</t>
+  </si>
+  <si>
     <t>Coasy</t>
   </si>
   <si>
+    <t>69131</t>
+  </si>
+  <si>
     <t>Crk7</t>
   </si>
   <si>
+    <t>76722</t>
+  </si>
+  <si>
     <t>Ckmt2</t>
   </si>
   <si>
+    <t>12675</t>
+  </si>
+  <si>
     <t>Chuk</t>
   </si>
   <si>
+    <t>23991</t>
+  </si>
+  <si>
     <t>Cib1</t>
   </si>
   <si>
+    <t>12704</t>
+  </si>
+  <si>
     <t>Cit</t>
   </si>
   <si>
+    <t>12709</t>
+  </si>
+  <si>
     <t>Ckb</t>
   </si>
   <si>
+    <t>12715</t>
+  </si>
+  <si>
     <t>Ckm</t>
   </si>
   <si>
+    <t>12716</t>
+  </si>
+  <si>
     <t>Ckmt1</t>
+  </si>
+  <si>
+    <t>12750</t>
   </si>
   <si>
     <t>Clk4</t>
@@ -436,7 +706,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -451,6 +721,10 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -530,19 +804,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D421"/>
+  <dimension ref="A1:E421"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F14" activeCellId="0" pane="topLeft" sqref="F14"/>
+      <selection activeCell="G4" activeCellId="0" pane="topLeft" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.05"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.3906976744186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1255813953488"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3906976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.8046511627907"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3906976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1255813953488"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.8046511627907"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="1">
@@ -558,24 +833,30 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>9694</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>40447</v>
@@ -583,41 +864,50 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>10744</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>3758</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>46522</v>
@@ -625,27 +915,33 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>1117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>44205</v>
@@ -653,55 +949,67 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>1450</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>4200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>5777</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>39461</v>
@@ -709,27 +1017,33 @@
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>9549</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>42631</v>
@@ -737,69 +1051,84 @@
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="15">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>4425</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>7556</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>778</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="18">
       <c r="A18" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>3088</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>47738</v>
@@ -807,41 +1136,50 @@
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>7742</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="21">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>4608</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>41518</v>
@@ -849,41 +1187,50 @@
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>5602</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="24">
       <c r="A24" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>8580</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>39171</v>
@@ -891,41 +1238,50 @@
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>15</v>
+      <c r="D25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>7464</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="27">
       <c r="A27" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>8544</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="28">
       <c r="A28" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>36970</v>
@@ -933,13 +1289,16 @@
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>16</v>
+      <c r="D28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>40029</v>
@@ -947,55 +1306,67 @@
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>17</v>
+      <c r="D29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="30">
       <c r="A30" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>5779</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="31">
       <c r="A31" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>7695</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>9778</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="33">
       <c r="A33" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>38883</v>
@@ -1003,41 +1374,50 @@
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>18</v>
+      <c r="D33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="34">
       <c r="A34" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>9478</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>8401</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="36">
       <c r="A36" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>39446</v>
@@ -1045,41 +1425,50 @@
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>19</v>
+      <c r="D36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="37">
       <c r="A37" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>5892</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>9377</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="39">
       <c r="A39" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>41067</v>
@@ -1087,55 +1476,67 @@
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>20</v>
+      <c r="D39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="40">
       <c r="A40" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>7862</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="41">
       <c r="A41" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>838</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="42">
       <c r="A42" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>2892</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="43">
       <c r="A43" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>45548</v>
@@ -1143,13 +1544,16 @@
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>21</v>
+      <c r="D43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="44">
       <c r="A44" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>35082</v>
@@ -1157,13 +1561,16 @@
       <c r="C44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>22</v>
+      <c r="D44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="45">
       <c r="A45" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>35082</v>
@@ -1171,97 +1578,118 @@
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>23</v>
+      <c r="D45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="46">
       <c r="A46" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>4065</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="47">
       <c r="A47" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>4065</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="48">
       <c r="A48" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>7543</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="49">
       <c r="A49" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>7543</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="50">
       <c r="A50" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>10423</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="51">
       <c r="A51" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>9777</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="52">
       <c r="A52" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" s="3" t="n">
         <v>39643</v>
@@ -1269,41 +1697,50 @@
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>24</v>
+      <c r="D52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="53">
       <c r="A53" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" s="3" t="n">
         <v>303</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="54">
       <c r="A54" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" s="3" t="n">
         <v>1882</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="55">
       <c r="A55" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" s="3" t="n">
         <v>48460</v>
@@ -1311,27 +1748,33 @@
       <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>25</v>
+      <c r="D55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="56">
       <c r="A56" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" s="3" t="n">
         <v>1046</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="57">
       <c r="A57" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57" s="3" t="n">
         <v>44655</v>
@@ -1339,41 +1782,50 @@
       <c r="C57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>26</v>
+      <c r="D57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="58">
       <c r="A58" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58" s="3" t="n">
         <v>3540</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="59">
       <c r="A59" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59" s="3" t="n">
         <v>6151</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="60">
       <c r="A60" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" s="3" t="n">
         <v>38730</v>
@@ -1381,27 +1833,33 @@
       <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>27</v>
+      <c r="D60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="61">
       <c r="A61" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>8104</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="62">
       <c r="A62" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62" s="3" t="n">
         <v>41350</v>
@@ -1409,55 +1867,67 @@
       <c r="C62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>28</v>
+      <c r="D62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="63">
       <c r="A63" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>4145</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="64">
       <c r="A64" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B64" s="3" t="n">
         <v>6987</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="65">
       <c r="A65" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" s="3" t="n">
         <v>8040</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="66">
       <c r="A66" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B66" s="3" t="n">
         <v>35326</v>
@@ -1465,41 +1935,50 @@
       <c r="C66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>29</v>
+      <c r="D66" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="67">
       <c r="A67" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" s="3" t="n">
         <v>6254</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="68">
       <c r="A68" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B68" s="3" t="n">
         <v>6607</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="69">
       <c r="A69" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B69" s="3" t="n">
         <v>37689</v>
@@ -1507,41 +1986,50 @@
       <c r="C69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>30</v>
+      <c r="D69" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="70">
       <c r="A70" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B70" s="3" t="n">
         <v>4670</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="71">
       <c r="A71" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B71" s="3" t="n">
         <v>4518</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="72">
       <c r="A72" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B72" s="3" t="n">
         <v>38726</v>
@@ -1549,27 +2037,33 @@
       <c r="C72" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>31</v>
+      <c r="D72" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="73">
       <c r="A73" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B73" s="3" t="n">
         <v>6461</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="74">
       <c r="A74" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B74" s="3" t="n">
         <v>37777</v>
@@ -1577,69 +2071,84 @@
       <c r="C74" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>32</v>
+      <c r="D74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="75">
       <c r="A75" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B75" s="3" t="n">
         <v>8391</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="76">
       <c r="A76" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B76" s="3" t="n">
         <v>11020</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="77">
       <c r="A77" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B77" s="3" t="n">
         <v>7006</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="78">
       <c r="A78" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B78" s="3" t="n">
         <v>7006</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="79">
       <c r="A79" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B79" s="3" t="n">
         <v>43116</v>
@@ -1647,13 +2156,16 @@
       <c r="C79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>33</v>
+      <c r="D79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="80">
       <c r="A80" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B80" s="3" t="n">
         <v>43116</v>
@@ -1661,41 +2173,50 @@
       <c r="C80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>34</v>
+      <c r="D80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="81">
       <c r="A81" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B81" s="3" t="n">
         <v>8522</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="82">
       <c r="A82" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B82" s="3" t="n">
         <v>8522</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="83">
       <c r="A83" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B83" s="3" t="n">
         <v>37633</v>
@@ -1703,13 +2224,16 @@
       <c r="C83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>35</v>
+      <c r="D83" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="84">
       <c r="A84" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B84" s="3" t="n">
         <v>37633</v>
@@ -1717,83 +2241,101 @@
       <c r="C84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>35</v>
+      <c r="D84" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="85">
       <c r="A85" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B85" s="3" t="n">
         <v>5874</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="86">
       <c r="A86" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B86" s="3" t="n">
         <v>5874</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="87">
       <c r="A87" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B87" s="3" t="n">
         <v>9628</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="88">
       <c r="A88" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B88" s="3" t="n">
         <v>9628</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="89">
       <c r="A89" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B89" s="3" t="n">
         <v>7759</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="90">
       <c r="A90" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B90" s="3" t="n">
         <v>39908</v>
@@ -1801,55 +2343,67 @@
       <c r="C90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>36</v>
+      <c r="D90" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="91">
       <c r="A91" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B91" s="3" t="n">
         <v>3614</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="92">
       <c r="A92" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B92" s="3" t="n">
         <v>6236</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="93">
       <c r="A93" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B93" s="3" t="n">
         <v>8389</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="94">
       <c r="A94" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B94" s="3" t="n">
         <v>34939</v>
@@ -1857,41 +2411,50 @@
       <c r="C94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>37</v>
+      <c r="D94" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="95">
       <c r="A95" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B95" s="3" t="n">
         <v>4777</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="96">
       <c r="A96" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B96" s="3" t="n">
         <v>6867</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="97">
       <c r="A97" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B97" s="3" t="n">
         <v>41374</v>
@@ -1899,41 +2462,50 @@
       <c r="C97" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>38</v>
+      <c r="D97" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="98">
       <c r="A98" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B98" s="3" t="n">
         <v>12297</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="99">
       <c r="A99" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B99" s="3" t="n">
         <v>10720</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="100">
       <c r="A100" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B100" s="3" t="n">
         <v>38134</v>
@@ -1941,13 +2513,16 @@
       <c r="C100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>6</v>
+      <c r="D100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="101">
       <c r="A101" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B101" s="3" t="n">
         <v>45198</v>
@@ -1955,41 +2530,50 @@
       <c r="C101" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>39</v>
+      <c r="D101" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="102">
       <c r="A102" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B102" s="3" t="n">
         <v>1016</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="103">
       <c r="A103" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B103" s="3" t="n">
         <v>3484</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="104">
       <c r="A104" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B104" s="3" t="n">
         <v>37108</v>
@@ -1997,13 +2581,16 @@
       <c r="C104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>40</v>
+      <c r="D104" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="105">
       <c r="A105" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B105" s="3" t="n">
         <v>37108</v>
@@ -2011,97 +2598,118 @@
       <c r="C105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>40</v>
+      <c r="D105" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="106">
       <c r="A106" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B106" s="3" t="n">
         <v>8131</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="107">
       <c r="A107" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B107" s="3" t="n">
         <v>8131</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="108">
       <c r="A108" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B108" s="3" t="n">
         <v>7299</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="109">
       <c r="A109" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B109" s="3" t="n">
         <v>7299</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="110">
       <c r="A110" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B110" s="3" t="n">
         <v>9381</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="111">
       <c r="A111" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B111" s="3" t="n">
         <v>16396</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="112">
       <c r="A112" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B112" s="3" t="n">
         <v>39994</v>
@@ -2109,27 +2717,33 @@
       <c r="C112" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>41</v>
+      <c r="D112" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="113">
       <c r="A113" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B113" s="3" t="n">
         <v>8034</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="114">
       <c r="A114" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B114" s="3" t="n">
         <v>38252</v>
@@ -2137,41 +2751,50 @@
       <c r="C114" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>42</v>
+      <c r="D114" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="115">
       <c r="A115" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B115" s="3" t="n">
         <v>8675</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="116">
       <c r="A116" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B116" s="3" t="n">
         <v>269</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="117">
       <c r="A117" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B117" s="3" t="n">
         <v>46575</v>
@@ -2179,41 +2802,50 @@
       <c r="C117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>43</v>
+      <c r="D117" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="118">
       <c r="A118" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B118" s="3" t="n">
         <v>1854</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="119">
       <c r="A119" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B119" s="3" t="n">
         <v>5106</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="120">
       <c r="A120" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B120" s="3" t="n">
         <v>41473</v>
@@ -2221,27 +2853,33 @@
       <c r="C120" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>44</v>
+      <c r="D120" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="121">
       <c r="A121" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B121" s="3" t="n">
         <v>2079</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="122">
       <c r="A122" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B122" s="3" t="n">
         <v>45760</v>
@@ -2249,69 +2887,84 @@
       <c r="C122" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>45</v>
+      <c r="D122" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="123">
       <c r="A123" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B123" s="3" t="n">
         <v>2995</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="124">
       <c r="A124" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B124" s="3" t="n">
         <v>5414</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="125">
       <c r="A125" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B125" s="3" t="n">
         <v>7246</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="126">
       <c r="A126" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B126" s="3" t="n">
         <v>7246</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="127">
       <c r="A127" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B127" s="3" t="n">
         <v>38193</v>
@@ -2319,13 +2972,16 @@
       <c r="C127" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>46</v>
+      <c r="D127" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="128">
       <c r="A128" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B128" s="3" t="n">
         <v>38193</v>
@@ -2333,69 +2989,84 @@
       <c r="C128" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>47</v>
+      <c r="D128" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="129">
       <c r="A129" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B129" s="3" t="n">
         <v>10553</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="130">
       <c r="A130" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B130" s="3" t="n">
         <v>10553</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="131">
       <c r="A131" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B131" s="3" t="n">
         <v>4150</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="132">
       <c r="A132" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B132" s="3" t="n">
         <v>1617</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="133">
       <c r="A133" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B133" s="3" t="n">
         <v>44257</v>
@@ -2403,41 +3074,50 @@
       <c r="C133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>48</v>
+      <c r="D133" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="134">
       <c r="A134" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B134" s="3" t="n">
         <v>8685</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="135">
       <c r="A135" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B135" s="3" t="n">
         <v>8685</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="136">
       <c r="A136" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B136" s="3" t="n">
         <v>36247</v>
@@ -2445,13 +3125,16 @@
       <c r="C136" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>49</v>
+      <c r="D136" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="137">
       <c r="A137" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B137" s="3" t="n">
         <v>36247</v>
@@ -2459,55 +3142,67 @@
       <c r="C137" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>50</v>
+      <c r="D137" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="138">
       <c r="A138" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B138" s="3" t="n">
         <v>4707</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="139">
       <c r="A139" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B139" s="3" t="n">
         <v>4707</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="140">
       <c r="A140" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B140" s="3" t="n">
         <v>5844</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="141">
       <c r="A141" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B141" s="3" t="n">
         <v>42652</v>
@@ -2515,55 +3210,67 @@
       <c r="C141" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>51</v>
+      <c r="D141" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="142">
       <c r="A142" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B142" s="3" t="n">
         <v>6765</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="143">
       <c r="A143" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B143" s="3" t="n">
         <v>593</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="144">
       <c r="A144" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B144" s="3" t="n">
         <v>2270</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="145">
       <c r="A145" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B145" s="3" t="n">
         <v>47898</v>
@@ -2571,41 +3278,50 @@
       <c r="C145" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>52</v>
+      <c r="D145" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="146">
       <c r="A146" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B146" s="3" t="n">
         <v>1339</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="147">
       <c r="A147" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B147" s="3" t="n">
         <v>184</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="148">
       <c r="A148" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B148" s="3" t="n">
         <v>48155</v>
@@ -2613,13 +3329,16 @@
       <c r="C148" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>25</v>
+      <c r="D148" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="149">
       <c r="A149" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B149" s="3" t="n">
         <v>46104</v>
@@ -2627,111 +3346,135 @@
       <c r="C149" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>53</v>
+      <c r="D149" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="150">
       <c r="A150" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B150" s="3" t="n">
         <v>2492</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="151">
       <c r="A151" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B151" s="3" t="n">
         <v>741</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>53</v>
+        <v>6</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="152">
       <c r="A152" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B152" s="3" t="n">
         <v>2242</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="153">
       <c r="A153" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B153" s="3" t="n">
         <v>2242</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="154">
       <c r="A154" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B154" s="3" t="n">
         <v>349</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="155">
       <c r="A155" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B155" s="3" t="n">
         <v>349</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="156">
       <c r="A156" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B156" s="3" t="n">
         <v>7487</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>11</v>
+        <v>98</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="157">
       <c r="A157" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B157" s="3" t="n">
         <v>45594</v>
@@ -2739,13 +3482,16 @@
       <c r="C157" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>54</v>
+      <c r="D157" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="158">
       <c r="A158" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B158" s="3" t="n">
         <v>45594</v>
@@ -2753,27 +3499,33 @@
       <c r="C158" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>54</v>
+      <c r="D158" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="159">
       <c r="A159" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B159" s="3" t="n">
         <v>489</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>56</v>
+        <v>6</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="160">
       <c r="A160" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B160" s="3" t="n">
         <v>46261</v>
@@ -2781,27 +3533,33 @@
       <c r="C160" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>56</v>
+      <c r="D160" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="161">
       <c r="A161" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B161" s="3" t="n">
         <v>2487</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="162">
       <c r="A162" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B162" s="3" t="n">
         <v>40549</v>
@@ -2809,55 +3567,67 @@
       <c r="C162" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>57</v>
+      <c r="D162" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="163">
       <c r="A163" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B163" s="3" t="n">
         <v>7069</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="164">
       <c r="A164" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B164" s="3" t="n">
         <v>5494</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="165">
       <c r="A165" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B165" s="3" t="n">
         <v>7338</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>58</v>
+        <v>6</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="166">
       <c r="A166" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B166" s="3" t="n">
         <v>39632</v>
@@ -2865,41 +3635,50 @@
       <c r="C166" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>58</v>
+      <c r="D166" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="167">
       <c r="A167" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B167" s="3" t="n">
         <v>7989</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="168">
       <c r="A168" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B168" s="3" t="n">
         <v>8198</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="169">
       <c r="A169" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B169" s="3" t="n">
         <v>39404</v>
@@ -2907,41 +3686,50 @@
       <c r="C169" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>59</v>
+      <c r="D169" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="170">
       <c r="A170" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B170" s="3" t="n">
         <v>4710</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="171">
       <c r="A171" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B171" s="3" t="n">
         <v>2613</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="172">
       <c r="A172" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B172" s="3" t="n">
         <v>41106</v>
@@ -2949,27 +3737,33 @@
       <c r="C172" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>60</v>
+      <c r="D172" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="173">
       <c r="A173" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B173" s="3" t="n">
         <v>5568</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="174">
       <c r="A174" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B174" s="3" t="n">
         <v>36978</v>
@@ -2977,55 +3771,67 @@
       <c r="C174" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>61</v>
+      <c r="D174" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="175">
       <c r="A175" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B175" s="3" t="n">
         <v>11977</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="176">
       <c r="A176" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B176" s="3" t="n">
         <v>8969</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="177">
       <c r="A177" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B177" s="3" t="n">
         <v>3681</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="178">
       <c r="A178" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B178" s="3" t="n">
         <v>44277</v>
@@ -3033,27 +3839,33 @@
       <c r="C178" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>62</v>
+      <c r="D178" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="179">
       <c r="A179" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B179" s="3" t="n">
         <v>1175</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>62</v>
+        <v>6</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="180">
       <c r="A180" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B180" s="3" t="n">
         <v>39174</v>
@@ -3061,41 +3873,50 @@
       <c r="C180" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>63</v>
+      <c r="D180" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="181">
       <c r="A181" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B181" s="3" t="n">
         <v>7090</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="182">
       <c r="A182" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B182" s="3" t="n">
         <v>9285</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="183">
       <c r="A183" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B183" s="3" t="n">
         <v>36245</v>
@@ -3103,69 +3924,84 @@
       <c r="C183" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>64</v>
+      <c r="D183" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="184">
       <c r="A184" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B184" s="3" t="n">
         <v>5865</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>64</v>
+        <v>6</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="185">
       <c r="A185" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B185" s="3" t="n">
         <v>7854</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="186">
       <c r="A186" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B186" s="3" t="n">
         <v>6076</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="187">
       <c r="A187" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B187" s="3" t="n">
         <v>4646</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="188">
       <c r="A188" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B188" s="3" t="n">
         <v>43118</v>
@@ -3173,41 +4009,50 @@
       <c r="C188" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>65</v>
+      <c r="D188" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="189">
       <c r="A189" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B189" s="3" t="n">
         <v>11230</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="190">
       <c r="A190" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B190" s="3" t="n">
         <v>10079</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="191">
       <c r="A191" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B191" s="3" t="n">
         <v>38348</v>
@@ -3215,27 +4060,33 @@
       <c r="C191" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>6</v>
+      <c r="D191" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="192">
       <c r="A192" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B192" s="3" t="n">
         <v>7152</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="193">
       <c r="A193" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B193" s="3" t="n">
         <v>40693</v>
@@ -3243,41 +4094,50 @@
       <c r="C193" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>66</v>
+      <c r="D193" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="194">
       <c r="A194" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B194" s="3" t="n">
         <v>5768</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="195">
       <c r="A195" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B195" s="3" t="n">
         <v>7493</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>67</v>
+        <v>6</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="196">
       <c r="A196" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B196" s="3" t="n">
         <v>38126</v>
@@ -3285,41 +4145,50 @@
       <c r="C196" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>67</v>
+      <c r="D196" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="197">
       <c r="A197" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B197" s="3" t="n">
         <v>7571</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>67</v>
+        <v>9</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="198">
       <c r="A198" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B198" s="3" t="n">
         <v>6053</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="199">
       <c r="A199" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B199" s="3" t="n">
         <v>38955</v>
@@ -3327,55 +4196,67 @@
       <c r="C199" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>68</v>
+      <c r="D199" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="200">
       <c r="A200" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B200" s="3" t="n">
         <v>7828</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>68</v>
+        <v>9</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="201">
       <c r="A201" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B201" s="3" t="n">
         <v>2434</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="202">
       <c r="A202" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B202" s="3" t="n">
         <v>668</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>69</v>
+        <v>6</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="203">
       <c r="A203" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B203" s="3" t="n">
         <v>44543</v>
@@ -3383,27 +4264,33 @@
       <c r="C203" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D203" s="2" t="s">
-        <v>69</v>
+      <c r="D203" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="204">
       <c r="A204" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B204" s="3" t="n">
         <v>9453</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="205">
       <c r="A205" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B205" s="3" t="n">
         <v>38849</v>
@@ -3411,27 +4298,33 @@
       <c r="C205" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="2" t="s">
-        <v>70</v>
+      <c r="D205" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="206">
       <c r="A206" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B206" s="3" t="n">
         <v>6440</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="207">
       <c r="A207" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B207" s="3" t="n">
         <v>36710</v>
@@ -3439,41 +4332,50 @@
       <c r="C207" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D207" s="2" t="s">
-        <v>71</v>
+      <c r="D207" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="208">
       <c r="A208" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B208" s="3" t="n">
         <v>10785</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="209">
       <c r="A209" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B209" s="3" t="n">
         <v>9557</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="210">
       <c r="A210" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B210" s="3" t="n">
         <v>35554</v>
@@ -3481,55 +4383,67 @@
       <c r="C210" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>72</v>
+      <c r="D210" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="211">
       <c r="A211" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B211" s="3" t="n">
         <v>9625</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="212">
       <c r="A212" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B212" s="3" t="n">
         <v>6891</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="213">
       <c r="A213" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B213" s="3" t="n">
         <v>8334</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="214">
       <c r="A214" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B214" s="3" t="n">
         <v>38257</v>
@@ -3537,41 +4451,50 @@
       <c r="C214" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>73</v>
+      <c r="D214" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="215">
       <c r="A215" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B215" s="3" t="n">
         <v>4421</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>73</v>
+        <v>6</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="216">
       <c r="A216" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B216" s="3" t="n">
         <v>4798</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>74</v>
+        <v>6</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="217">
       <c r="A217" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B217" s="3" t="n">
         <v>42271</v>
@@ -3579,27 +4502,33 @@
       <c r="C217" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>74</v>
+      <c r="D217" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="218">
       <c r="A218" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B218" s="3" t="n">
         <v>7591</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="219">
       <c r="A219" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B219" s="3" t="n">
         <v>48450</v>
@@ -3607,41 +4536,50 @@
       <c r="C219" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>75</v>
+      <c r="D219" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="220">
       <c r="A220" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B220" s="3" t="n">
         <v>192</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="221">
       <c r="A221" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B221" s="3" t="n">
         <v>1681</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="222">
       <c r="A222" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B222" s="3" t="n">
         <v>38995</v>
@@ -3649,69 +4587,84 @@
       <c r="C222" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>76</v>
+      <c r="D222" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="223">
       <c r="A223" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B223" s="3" t="n">
         <v>7771</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="224">
       <c r="A224" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B224" s="3" t="n">
         <v>8292</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>76</v>
+        <v>9</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="225">
       <c r="A225" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B225" s="3" t="n">
         <v>4943</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>77</v>
+        <v>6</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="226">
       <c r="A226" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B226" s="3" t="n">
         <v>7176</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="227">
       <c r="A227" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B227" s="3" t="n">
         <v>39332</v>
@@ -3719,27 +4672,33 @@
       <c r="C227" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>77</v>
+      <c r="D227" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="228">
       <c r="A228" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B228" s="3" t="n">
         <v>182</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="229">
       <c r="A229" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B229" s="3" t="n">
         <v>49299</v>
@@ -3747,55 +4706,67 @@
       <c r="C229" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>25</v>
+      <c r="D229" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="230">
       <c r="A230" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B230" s="3" t="n">
         <v>1110</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="231">
       <c r="A231" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B231" s="3" t="n">
         <v>5796</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>78</v>
+        <v>9</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="232">
       <c r="A232" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B232" s="3" t="n">
         <v>5796</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>78</v>
+        <v>9</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="233">
       <c r="A233" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B233" s="3" t="n">
         <v>39954</v>
@@ -3803,13 +4774,16 @@
       <c r="C233" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="2" t="s">
-        <v>78</v>
+      <c r="D233" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="234">
       <c r="A234" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B234" s="3" t="n">
         <v>39954</v>
@@ -3817,69 +4791,84 @@
       <c r="C234" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>78</v>
+      <c r="D234" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="235">
       <c r="A235" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B235" s="3" t="n">
         <v>3033</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>78</v>
+        <v>6</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="236">
       <c r="A236" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B236" s="3" t="n">
         <v>3033</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>78</v>
+        <v>6</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="237">
       <c r="A237" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B237" s="3" t="n">
         <v>8241</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="238">
       <c r="A238" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B238" s="3" t="n">
         <v>8064</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>79</v>
+        <v>6</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="239">
       <c r="A239" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B239" s="3" t="n">
         <v>39011</v>
@@ -3887,13 +4876,16 @@
       <c r="C239" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>79</v>
+      <c r="D239" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="240">
       <c r="A240" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B240" s="3" t="n">
         <v>38286</v>
@@ -3901,55 +4893,67 @@
       <c r="C240" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D240" s="2" t="s">
-        <v>80</v>
+      <c r="D240" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="241">
       <c r="A241" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B241" s="3" t="n">
         <v>7102</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>80</v>
+        <v>9</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="242">
       <c r="A242" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B242" s="3" t="n">
         <v>5699</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="243">
       <c r="A243" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B243" s="3" t="n">
         <v>7947</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>81</v>
+        <v>9</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="244">
       <c r="A244" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B244" s="3" t="n">
         <v>40591</v>
@@ -3957,27 +4961,33 @@
       <c r="C244" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>81</v>
+      <c r="D244" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="245">
       <c r="A245" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B245" s="3" t="n">
         <v>4367</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="246">
       <c r="A246" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B246" s="3" t="n">
         <v>42028</v>
@@ -3985,41 +4995,50 @@
       <c r="C246" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>82</v>
+      <c r="D246" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="247">
       <c r="A247" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B247" s="3" t="n">
         <v>3502</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>82</v>
+        <v>6</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="248">
       <c r="A248" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B248" s="3" t="n">
         <v>6481</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="249">
       <c r="A249" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B249" s="3" t="n">
         <v>40245</v>
@@ -4027,41 +5046,50 @@
       <c r="C249" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>83</v>
+      <c r="D249" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="250">
       <c r="A250" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B250" s="3" t="n">
         <v>8294</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="251">
       <c r="A251" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B251" s="3" t="n">
         <v>6241</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>83</v>
+        <v>6</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="252">
       <c r="A252" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B252" s="3" t="n">
         <v>39894</v>
@@ -4069,41 +5097,50 @@
       <c r="C252" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D252" s="2" t="s">
-        <v>84</v>
+      <c r="D252" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="253">
       <c r="A253" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B253" s="3" t="n">
         <v>8348</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>84</v>
+        <v>6</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="254">
       <c r="A254" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B254" s="3" t="n">
         <v>8463</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="255">
       <c r="A255" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B255" s="3" t="n">
         <v>43888</v>
@@ -4111,69 +5148,84 @@
       <c r="C255" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>85</v>
+      <c r="D255" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="256">
       <c r="A256" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B256" s="3" t="n">
         <v>5289</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="257">
       <c r="A257" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B257" s="3" t="n">
         <v>2314</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>85</v>
+        <v>6</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="258">
       <c r="A258" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B258" s="3" t="n">
         <v>7575</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>86</v>
+        <v>9</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="259">
       <c r="A259" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B259" s="3" t="n">
         <v>4998</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>86</v>
+        <v>6</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="260">
       <c r="A260" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B260" s="3" t="n">
         <v>40204</v>
@@ -4181,41 +5233,50 @@
       <c r="C260" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>86</v>
+      <c r="D260" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="261">
       <c r="A261" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B261" s="3" t="n">
         <v>7197</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="262">
       <c r="A262" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B262" s="3" t="n">
         <v>8898</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>87</v>
+        <v>9</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="263">
       <c r="A263" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B263" s="3" t="n">
         <v>39538</v>
@@ -4223,41 +5284,50 @@
       <c r="C263" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>87</v>
+      <c r="D263" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="264">
       <c r="A264" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B264" s="3" t="n">
         <v>6792</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="265">
       <c r="A265" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B265" s="3" t="n">
         <v>5911</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="266">
       <c r="A266" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B266" s="3" t="n">
         <v>36602</v>
@@ -4265,69 +5335,84 @@
       <c r="C266" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D266" s="2" t="s">
-        <v>88</v>
+      <c r="D266" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="267">
       <c r="A267" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B267" s="3" t="n">
         <v>689</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>89</v>
+        <v>6</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="268">
       <c r="A268" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B268" s="3" t="n">
         <v>689</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>89</v>
+        <v>6</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="269">
       <c r="A269" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B269" s="3" t="n">
         <v>2318</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="270">
       <c r="A270" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B270" s="3" t="n">
         <v>2318</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="271">
       <c r="A271" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B271" s="3" t="n">
         <v>45717</v>
@@ -4335,13 +5420,16 @@
       <c r="C271" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>89</v>
+      <c r="D271" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="272">
       <c r="A272" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B272" s="3" t="n">
         <v>45717</v>
@@ -4349,13 +5437,16 @@
       <c r="C272" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D272" s="2" t="s">
-        <v>89</v>
+      <c r="D272" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="273">
       <c r="A273" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B273" s="3" t="n">
         <v>38106</v>
@@ -4363,69 +5454,84 @@
       <c r="C273" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>6</v>
+      <c r="D273" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="274">
       <c r="A274" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B274" s="3" t="n">
         <v>10496</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="275">
       <c r="A275" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B275" s="3" t="n">
         <v>10350</v>
       </c>
       <c r="C275" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="276">
       <c r="A276" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B276" s="3" t="n">
         <v>3797</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="277">
       <c r="A277" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B277" s="3" t="n">
         <v>1433</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>90</v>
+        <v>6</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="278">
       <c r="A278" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B278" s="3" t="n">
         <v>45259</v>
@@ -4433,41 +5539,50 @@
       <c r="C278" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D278" s="2" t="s">
-        <v>90</v>
+      <c r="D278" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="279">
       <c r="A279" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B279" s="3" t="n">
         <v>4311</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>91</v>
+        <v>9</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="280">
       <c r="A280" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B280" s="3" t="n">
         <v>1898</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>91</v>
+        <v>6</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="281">
       <c r="A281" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B281" s="3" t="n">
         <v>45806</v>
@@ -4475,41 +5590,50 @@
       <c r="C281" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>91</v>
+      <c r="D281" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="282">
       <c r="A282" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B282" s="3" t="n">
         <v>6949</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="283">
       <c r="A283" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B283" s="3" t="n">
         <v>5178</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="284">
       <c r="A284" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B284" s="3" t="n">
         <v>39440</v>
@@ -4517,13 +5641,16 @@
       <c r="C284" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D284" s="2" t="s">
-        <v>92</v>
+      <c r="D284" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="285">
       <c r="A285" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B285" s="3" t="n">
         <v>45776</v>
@@ -4531,41 +5658,50 @@
       <c r="C285" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>93</v>
+      <c r="D285" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="286">
       <c r="A286" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B286" s="3" t="n">
         <v>2230</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>93</v>
+        <v>9</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="287">
       <c r="A287" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B287" s="3" t="n">
         <v>599</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="288">
       <c r="A288" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B288" s="3" t="n">
         <v>35860</v>
@@ -4573,41 +5709,50 @@
       <c r="C288" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D288" s="2" t="s">
-        <v>94</v>
+      <c r="D288" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="289">
       <c r="A289" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B289" s="3" t="n">
         <v>8704</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="290">
       <c r="A290" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B290" s="3" t="n">
         <v>6458</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="291">
       <c r="A291" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B291" s="3" t="n">
         <v>43799</v>
@@ -4615,55 +5760,67 @@
       <c r="C291" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D291" s="2" t="s">
-        <v>95</v>
+      <c r="D291" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="292">
       <c r="A292" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B292" s="3" t="n">
         <v>2601</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>95</v>
+        <v>6</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="293">
       <c r="A293" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B293" s="3" t="n">
         <v>4665</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="294">
       <c r="A294" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B294" s="3" t="n">
         <v>7307</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="295">
       <c r="A295" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B295" s="3" t="n">
         <v>42987</v>
@@ -4671,27 +5828,33 @@
       <c r="C295" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D295" s="2" t="s">
-        <v>96</v>
+      <c r="D295" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="296">
       <c r="A296" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B296" s="3" t="n">
         <v>8002</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>96</v>
+        <v>9</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="297">
       <c r="A297" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B297" s="3" t="n">
         <v>41558</v>
@@ -4699,69 +5862,84 @@
       <c r="C297" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D297" s="2" t="s">
-        <v>97</v>
+      <c r="D297" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="298">
       <c r="A298" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B298" s="3" t="n">
         <v>4135</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>97</v>
+        <v>6</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="299">
       <c r="A299" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B299" s="3" t="n">
         <v>6463</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>97</v>
+        <v>9</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="300">
       <c r="A300" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B300" s="3" t="n">
         <v>5297</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="301">
       <c r="A301" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B301" s="3" t="n">
         <v>8575</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>98</v>
+        <v>9</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="302">
       <c r="A302" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B302" s="3" t="n">
         <v>41165</v>
@@ -4769,13 +5947,16 @@
       <c r="C302" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D302" s="2" t="s">
-        <v>98</v>
+      <c r="D302" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="303">
       <c r="A303" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B303" s="3" t="n">
         <v>37532</v>
@@ -4783,69 +5964,84 @@
       <c r="C303" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D303" s="2" t="s">
-        <v>99</v>
+      <c r="D303" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="304">
       <c r="A304" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B304" s="3" t="n">
         <v>8431</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>99</v>
+        <v>9</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="305">
       <c r="A305" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B305" s="3" t="n">
         <v>6034</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>99</v>
+        <v>6</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="306">
       <c r="A306" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B306" s="3" t="n">
         <v>7468</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="307">
       <c r="A307" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B307" s="3" t="n">
         <v>5926</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="308">
       <c r="A308" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B308" s="3" t="n">
         <v>39269</v>
@@ -4853,41 +6049,50 @@
       <c r="C308" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D308" s="2" t="s">
-        <v>100</v>
+      <c r="D308" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="309">
       <c r="A309" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B309" s="3" t="n">
         <v>7864</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="310">
       <c r="A310" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B310" s="3" t="n">
         <v>7156</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>101</v>
+        <v>6</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="311">
       <c r="A311" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B311" s="3" t="n">
         <v>40925</v>
@@ -4895,27 +6100,33 @@
       <c r="C311" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D311" s="2" t="s">
-        <v>101</v>
+      <c r="D311" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="312">
       <c r="A312" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B312" s="3" t="n">
         <v>370</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="313">
       <c r="A313" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B313" s="3" t="n">
         <v>48731</v>
@@ -4923,27 +6134,33 @@
       <c r="C313" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D313" s="2" t="s">
-        <v>25</v>
+      <c r="D313" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="314">
       <c r="A314" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B314" s="3" t="n">
         <v>1335</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="315">
       <c r="A315" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B315" s="3" t="n">
         <v>38801</v>
@@ -4951,1492 +6168,1813 @@
       <c r="C315" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D315" s="2" t="s">
-        <v>102</v>
+      <c r="D315" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="316">
       <c r="A316" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B316" s="3" t="n">
         <v>4999</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>102</v>
+        <v>6</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="317">
       <c r="A317" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B317" s="3" t="n">
         <v>6618</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>102</v>
+        <v>9</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="318">
       <c r="A318" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B318" s="3" t="n">
         <v>6137</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>12</v>
+        <v>98</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="319">
       <c r="A319" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B319" s="3" t="n">
         <v>1400</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="320">
       <c r="A320" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B320" s="3" t="n">
         <v>7091</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>15</v>
+        <v>98</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="321">
       <c r="A321" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B321" s="3" t="n">
         <v>9368</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="322">
       <c r="A322" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B322" s="3" t="n">
         <v>8995</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="323">
       <c r="A323" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B323" s="3" t="n">
         <v>2079</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>9</v>
+        <v>98</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="324">
       <c r="A324" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B324" s="3" t="n">
         <v>2333</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="325">
       <c r="A325" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B325" s="3" t="n">
         <v>8532</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="326">
       <c r="A326" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B326" s="3" t="n">
         <v>10376</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>24</v>
+        <v>98</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="327">
       <c r="A327" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B327" s="3" t="n">
         <v>1786</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>26</v>
+        <v>98</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="328">
       <c r="A328" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B328" s="3" t="n">
         <v>7933</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>27</v>
+        <v>98</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="329">
       <c r="A329" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B329" s="3" t="n">
         <v>5058</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>28</v>
+        <v>98</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="330">
       <c r="A330" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B330" s="3" t="n">
         <v>8150</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>29</v>
+        <v>98</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="331">
       <c r="A331" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B331" s="3" t="n">
         <v>6258</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="332">
       <c r="A332" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B332" s="3" t="n">
         <v>6063</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="333">
       <c r="A333" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B333" s="3" t="n">
         <v>9217</v>
       </c>
       <c r="C333" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D333" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D333" s="2" t="s">
-        <v>32</v>
+      <c r="E333" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="334">
       <c r="A334" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B334" s="3" t="n">
         <v>1167</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="335">
       <c r="A335" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B335" s="3" t="n">
         <v>9179</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="336">
       <c r="A336" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B336" s="3" t="n">
         <v>6880</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>23</v>
+        <v>98</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="337">
       <c r="A337" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B337" s="3" t="n">
         <v>8198</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>33</v>
+        <v>98</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="338">
       <c r="A338" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B338" s="3" t="n">
         <v>5387</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>38</v>
+        <v>98</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="339">
       <c r="A339" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B339" s="3" t="n">
         <v>8634</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>37</v>
+        <v>98</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="340">
       <c r="A340" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B340" s="3" t="n">
         <v>2100</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="341">
       <c r="A341" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B341" s="3" t="n">
         <v>9084</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="342">
       <c r="A342" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B342" s="3" t="n">
         <v>9084</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="343">
       <c r="A343" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B343" s="3" t="n">
         <v>11062</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="344">
       <c r="A344" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B344" s="3" t="n">
         <v>8954</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="345">
       <c r="A345" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B345" s="3" t="n">
         <v>385</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="346">
       <c r="A346" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B346" s="3" t="n">
         <v>3203</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
+      </c>
+      <c r="D346" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="347">
       <c r="A347" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B347" s="3" t="n">
         <v>7906</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D347" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="348">
       <c r="A348" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B348" s="3" t="n">
         <v>7906</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
+      </c>
+      <c r="D348" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="349">
       <c r="A349" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B349" s="3" t="n">
         <v>6002</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="350">
       <c r="A350" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B350" s="3" t="n">
         <v>3852</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="351">
       <c r="A351" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B351" s="3" t="n">
         <v>5514</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D351" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="352">
       <c r="A352" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B352" s="3" t="n">
         <v>726</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D352" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="353">
       <c r="A353" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B353" s="3" t="n">
         <v>6877</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D353" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="354">
       <c r="A354" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B354" s="3" t="n">
         <v>485</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
+      </c>
+      <c r="D354" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="355">
       <c r="A355" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B355" s="3" t="n">
         <v>485</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D355" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="356">
       <c r="A356" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B356" s="3" t="n">
         <v>9074</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="357">
       <c r="A357" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B357" s="3" t="n">
         <v>8701</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D357" s="2" t="s">
-        <v>63</v>
+        <v>98</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="358">
       <c r="A358" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B358" s="3" t="n">
         <v>7751</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D358" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="359">
       <c r="A359" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B359" s="3" t="n">
         <v>5609</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>65</v>
+        <v>98</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="360">
       <c r="A360" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B360" s="3" t="n">
         <v>1845</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="361">
       <c r="A361" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B361" s="3" t="n">
         <v>6985</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="362">
       <c r="A362" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B362" s="3" t="n">
         <v>8686</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>67</v>
+        <v>98</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="363">
       <c r="A363" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B363" s="3" t="n">
         <v>7745</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="364">
       <c r="A364" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B364" s="3" t="n">
         <v>871</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="365">
       <c r="A365" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B365" s="3" t="n">
         <v>4200</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="366">
       <c r="A366" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B366" s="3" t="n">
         <v>10805</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
+      </c>
+      <c r="D366" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="367">
       <c r="A367" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B367" s="3" t="n">
         <v>8602</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
+      </c>
+      <c r="D367" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="368">
       <c r="A368" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B368" s="3" t="n">
         <v>6054</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
+      </c>
+      <c r="D368" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="369">
       <c r="A369" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B369" s="3" t="n">
         <v>396</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="370">
       <c r="A370" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B370" s="3" t="n">
         <v>8996</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="371">
       <c r="A371" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B371" s="3" t="n">
         <v>6754</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="372">
       <c r="A372" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B372" s="3" t="n">
         <v>9074</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="373">
       <c r="A373" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B373" s="3" t="n">
         <v>7513</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D373" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="374">
       <c r="A374" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B374" s="3" t="n">
         <v>4824</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="375">
       <c r="A375" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B375" s="3" t="n">
         <v>4824</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="376">
       <c r="A376" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B376" s="3" t="n">
         <v>8421</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D376" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="377">
       <c r="A377" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B377" s="3" t="n">
         <v>6789</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D377" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="378">
       <c r="A378" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B378" s="3" t="n">
         <v>10571</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D378" s="2" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="379">
       <c r="A379" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B379" s="3" t="n">
         <v>9262</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>72</v>
+        <v>98</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="380">
       <c r="A380" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B380" s="3" t="n">
         <v>5663</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
+      </c>
+      <c r="D380" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="381">
       <c r="A381" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B381" s="3" t="n">
         <v>3892</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D381" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="382">
       <c r="A382" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B382" s="3" t="n">
         <v>6478</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D382" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
+      </c>
+      <c r="D382" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="383">
       <c r="A383" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B383" s="3" t="n">
         <v>8894</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="384">
       <c r="A384" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B384" s="3" t="n">
         <v>6543</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="385">
       <c r="A385" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B385" s="3" t="n">
         <v>814</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D385" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="386">
       <c r="A386" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B386" s="3" t="n">
         <v>814</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="D386" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="387">
       <c r="A387" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B387" s="3" t="n">
         <v>8444</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="388">
       <c r="A388" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B388" s="3" t="n">
         <v>2292</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="389">
       <c r="A389" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B389" s="3" t="n">
         <v>2804</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="390">
       <c r="A390" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B390" s="3" t="n">
         <v>4502</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="391">
       <c r="A391" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B391" s="3" t="n">
         <v>7238</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D391" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="392">
       <c r="A392" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B392" s="3" t="n">
         <v>5749</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="D392" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="393">
       <c r="A393" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B393" s="3" t="n">
         <v>8006</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="D393" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="394">
       <c r="A394" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B394" s="3" t="n">
         <v>5272</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D394" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="395">
       <c r="A395" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B395" s="3" t="n">
         <v>7021</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>98</v>
+        <v>98</v>
+      </c>
+      <c r="D395" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="396">
       <c r="A396" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B396" s="3" t="n">
         <v>6939</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D396" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="D396" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="397">
       <c r="A397" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B397" s="3" t="n">
         <v>7135</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D397" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="D397" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="398">
       <c r="A398" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B398" s="3" t="n">
         <v>7520</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D398" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="399">
       <c r="A399" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B399" s="3" t="n">
         <v>3052</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D399" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="400">
       <c r="A400" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B400" s="3" t="n">
         <v>5432</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D400" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B401" s="3" t="n">
         <v>916</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D401" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="402">
       <c r="A402" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B402" s="3" t="n">
         <v>413</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="403">
       <c r="A403" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B403" s="3" t="n">
         <v>311</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="404">
       <c r="A404" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B404" s="3" t="n">
         <v>295</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D404" s="2" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="405">
       <c r="A405" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B405" s="3" t="n">
         <v>523</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="406">
       <c r="A406" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B406" s="3" t="n">
         <v>7945</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D406" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="407">
       <c r="A407" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B407" s="3" t="n">
         <v>7871</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="408">
       <c r="A408" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B408" s="3" t="n">
         <v>5853</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
+      </c>
+      <c r="D408" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="409">
       <c r="A409" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B409" s="3" t="n">
         <v>1094</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>56</v>
+        <v>98</v>
+      </c>
+      <c r="D409" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="410">
       <c r="A410" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B410" s="3" t="n">
         <v>9799</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="D410" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="411">
       <c r="A411" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B411" s="3" t="n">
         <v>10475</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="412">
       <c r="A412" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B412" s="3" t="n">
         <v>11200</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="D412" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="413">
       <c r="A413" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B413" s="3" t="n">
         <v>10202</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="414">
       <c r="A414" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B414" s="3" t="n">
         <v>6576</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>57</v>
+        <v>98</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="415">
       <c r="A415" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B415" s="3" t="n">
         <v>2922</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
+      </c>
+      <c r="D415" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="416">
       <c r="A416" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B416" s="3" t="n">
         <v>6877</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
+      </c>
+      <c r="D416" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="417">
       <c r="A417" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B417" s="3" t="n">
         <v>6880</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>22</v>
+        <v>98</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="418">
       <c r="A418" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B418" s="3" t="n">
         <v>1123</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>53</v>
+        <v>98</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="419">
       <c r="A419" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B419" s="3" t="n">
         <v>7407</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>17</v>
+        <v>98</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="420">
       <c r="A420" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B420" s="3" t="n">
         <v>6958</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>14</v>
+        <v>98</v>
+      </c>
+      <c r="D420" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="421">
       <c r="A421" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B421" s="3" t="n">
         <v>8198</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
